--- a/Team-Data/2011-12/3-24-2011-12.xlsx
+++ b/Team-Data/2011-12/3-24-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.592</v>
+        <v>0.583</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
@@ -684,19 +751,19 @@
         <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>19.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
         <v>14.8</v>
@@ -705,7 +772,7 @@
         <v>20.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R2" t="n">
         <v>10.1</v>
@@ -720,13 +787,13 @@
         <v>21.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
@@ -744,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -756,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
         <v>20</v>
@@ -774,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -792,22 +859,22 @@
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -956,10 +1023,10 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -992,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.152</v>
+        <v>0.156</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J4" t="n">
         <v>80.5</v>
@@ -1054,13 +1121,13 @@
         <v>0.416</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M4" t="n">
         <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="O4" t="n">
         <v>16.4</v>
@@ -1072,31 +1139,31 @@
         <v>0.749</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
@@ -1108,7 +1175,7 @@
         <v>-13.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1141,19 +1208,19 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,16 +1229,16 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
       <c r="H5" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>82.7</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.374</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
         <v>15.8</v>
@@ -1251,13 +1318,13 @@
         <v>21.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T5" t="n">
         <v>46.2</v>
@@ -1266,19 +1333,19 @@
         <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA5" t="n">
         <v>17.8</v>
@@ -1287,7 +1354,7 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1302,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1320,22 +1387,22 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,19 +1411,19 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,22 +1551,22 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -1576,79 +1643,79 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H7" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
         <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
         <v>22.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O7" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W7" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
         <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>1.7</v>
@@ -1663,10 +1730,10 @@
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1678,7 +1745,7 @@
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
@@ -1687,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>24</v>
@@ -1696,10 +1763,10 @@
         <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>12</v>
@@ -1714,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1896,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
         <v>16.9</v>
@@ -1979,25 +2046,25 @@
         <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V9" t="n">
         <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
@@ -2012,13 +2079,13 @@
         <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.1</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
@@ -2030,16 +2097,16 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2060,13 +2127,13 @@
         <v>12</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2087,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2189,70 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.435</v>
+        <v>0.422</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M10" t="n">
         <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O10" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P10" t="n">
         <v>20</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
         <v>39.6</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V10" t="n">
         <v>14</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z10" t="n">
         <v>21.8</v>
@@ -2194,25 +2261,25 @@
         <v>17.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
         <v>28</v>
@@ -2245,19 +2312,19 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
         <v>7</v>
@@ -2266,13 +2333,13 @@
         <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.531</v>
+        <v>0.542</v>
       </c>
       <c r="H11" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
         <v>37.6</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.36</v>
@@ -2343,34 +2410,34 @@
         <v>20.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S11" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U11" t="n">
         <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA11" t="n">
         <v>18.5</v>
@@ -2379,43 +2446,43 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
         <v>12</v>
       </c>
-      <c r="AF11" t="n">
-        <v>16</v>
-      </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2436,16 +2503,16 @@
         <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>19</v>
@@ -2454,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J12" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="P12" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
@@ -2534,13 +2601,13 @@
         <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
         <v>18.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -2549,7 +2616,7 @@
         <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>21.8</v>
@@ -2558,13 +2625,13 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2576,16 +2643,16 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,22 +2661,22 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
@@ -2618,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,43 +2753,43 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S13" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T13" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W13" t="n">
         <v>8.1</v>
@@ -2734,43 +2801,43 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
         <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10</v>
       </c>
-      <c r="AE13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9</v>
-      </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
@@ -2779,31 +2846,31 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
         <v>22</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
@@ -2812,16 +2879,16 @@
         <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2964,13 +3031,13 @@
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3000,10 +3067,10 @@
         <v>11</v>
       </c>
       <c r="BB14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -3032,43 +3099,43 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>0.543</v>
+        <v>0.556</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.32</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
         <v>0.75</v>
@@ -3077,73 +3144,73 @@
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="n">
         <v>20.1</v>
       </c>
-      <c r="AA15" t="n">
-        <v>20</v>
-      </c>
       <c r="AB15" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3155,28 +3222,28 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3316,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
         <v>25</v>
@@ -3331,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT16" t="n">
         <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>17</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.458</v>
+        <v>0.468</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,25 +3481,25 @@
         <v>37.4</v>
       </c>
       <c r="J17" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.437</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
         <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="n">
         <v>0.79</v>
@@ -3441,16 +3508,16 @@
         <v>12.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V17" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
@@ -3462,25 +3529,25 @@
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3504,10 +3571,10 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO17" t="n">
         <v>16</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3519,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>19</v>
@@ -3528,10 +3595,10 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
@@ -3677,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3692,16 +3759,16 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ18" t="n">
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3716,10 +3783,10 @@
         <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32</v>
+        <v>0.306</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.424</v>
       </c>
       <c r="L19" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.345</v>
@@ -3799,19 +3866,19 @@
         <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T19" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U19" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
@@ -3829,19 +3896,19 @@
         <v>19.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.1</v>
+        <v>-6.5</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3874,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
@@ -3898,16 +3965,16 @@
         <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
         <v>14</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -3942,55 +4009,55 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.445</v>
       </c>
       <c r="L20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="N20" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O20" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R20" t="n">
         <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
         <v>20.9</v>
@@ -3999,7 +4066,7 @@
         <v>15.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
         <v>4.8</v>
@@ -4011,7 +4078,7 @@
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
         <v>89</v>
@@ -4020,7 +4087,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,10 +4099,10 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4044,16 +4111,16 @@
         <v>15</v>
       </c>
       <c r="AL20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM20" t="n">
         <v>29</v>
       </c>
-      <c r="AM20" t="n">
-        <v>30</v>
-      </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4068,7 +4135,7 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4077,16 +4144,16 @@
         <v>23</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>19</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.49</v>
+        <v>0.479</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
@@ -4160,28 +4227,28 @@
         <v>19.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="R21" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
         <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W21" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>4.4</v>
@@ -4196,16 +4263,16 @@
         <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,10 +4290,10 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
@@ -4244,16 +4311,16 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4262,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4453,7 +4520,7 @@
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>2.1</v>
       </c>
       <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
         <v>4</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>5</v>
       </c>
       <c r="AF23" t="n">
         <v>5</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>6.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF24" t="n">
         <v>10</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9</v>
       </c>
       <c r="AG24" t="n">
         <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4942,13 +5009,13 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
         <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>10</v>
@@ -4963,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4975,13 +5042,13 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>20</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>0.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5145,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5169,13 +5236,13 @@
         <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5184,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -5216,67 +5283,67 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.316</v>
+        <v>0.32</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R27" t="n">
         <v>13.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
@@ -5285,16 +5352,16 @@
         <v>19.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5333,13 +5400,13 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5351,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5360,10 +5427,10 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.696</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,43 +5483,43 @@
         <v>38.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
         <v>15.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="R28" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
         <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V28" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W28" t="n">
         <v>7</v>
@@ -5464,19 +5531,19 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5509,40 +5576,40 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>27</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW28" t="n">
         <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J29" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.44</v>
       </c>
       <c r="L29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M29" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O29" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R29" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="U29" t="n">
         <v>21.1</v>
@@ -5640,25 +5707,25 @@
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA29" t="n">
         <v>18.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5670,10 +5737,10 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
@@ -5688,37 +5755,37 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>11</v>
       </c>
       <c r="AT29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV29" t="n">
         <v>22</v>
       </c>
-      <c r="AU29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV29" t="n">
+      <c r="AW29" t="n">
         <v>24</v>
       </c>
-      <c r="AW29" t="n">
-        <v>26</v>
-      </c>
       <c r="AX29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5861,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5894,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.234</v>
+        <v>0.239</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5974,37 +6041,37 @@
         <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
         <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.6</v>
@@ -6019,10 +6086,10 @@
         <v>93.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,10 +6107,10 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6052,22 +6119,22 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6076,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>14</v>
@@ -6085,10 +6152,10 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2011-12</t>
+          <t>2012-03-24</t>
         </is>
       </c>
     </row>
